--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>任务描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,15 +44,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以角色管理列表页面为例，引入带分页的列表页面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以角色管理列表页面为例，列表页面增加工具栏，并根据角色、权限，展示相应按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未开始</t>
+  </si>
+  <si>
+    <t>Excel导入、导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以角色管理列表页面为例，列表页面增加工具栏，并根据角色、权限，展示相应按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以角色管理列表页面为例，引入带分页的列表页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形化统计分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -495,13 +507,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4">
         <v>43770</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -512,13 +524,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4">
         <v>43770</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -528,9 +540,15 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43770</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -539,9 +557,15 @@
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43770</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -550,9 +574,15 @@
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43770</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>任务描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <t>未开始</t>
   </si>
   <si>
-    <t>Excel导入、导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以角色管理列表页面为例，列表页面增加工具栏，并根据角色、权限，展示相应按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,6 +60,26 @@
   </si>
   <si>
     <t>图形化统计分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191103
+完成分页列表列表部分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库日志，及分类查询（按用户、按功能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -158,6 +174,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,7 +494,7 @@
     <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="2.125" style="1"/>
   </cols>
   <sheetData>
@@ -507,24 +526,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4">
         <v>43770</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43771</v>
+      </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4">
         <v>43770</v>
@@ -541,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>43770</v>
@@ -558,7 +581,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4">
         <v>43770</v>
@@ -575,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4">
         <v>43770</v>
@@ -591,9 +614,15 @@
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43770</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -602,9 +631,15 @@
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43773</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -775,7 +810,9 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="3"/>
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -783,10 +820,19 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
+    <row r="26" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -47,39 +47,41 @@
     <t>未开始</t>
   </si>
   <si>
+    <t>报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形化统计分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库日志，及分类查询（按用户、按功能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以角色管理列表页面为例，引入带分页的列表页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191103
+完成分页列表列表部分。
+20191107
+完成分页列表页码导航部分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
     <t>以角色管理列表页面为例，列表页面增加工具栏，并根据角色、权限，展示相应按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以角色管理列表页面为例，引入带分页的列表页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形化统计分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191103
-完成分页列表列表部分。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库日志，及分类查询（按用户、按功能）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-  </si>
-  <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -521,25 +525,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4">
         <v>43770</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4">
         <v>43771</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="4">
+        <v>43776</v>
+      </c>
       <c r="H3" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -547,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4">
         <v>43770</v>
@@ -564,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4">
         <v>43770</v>
@@ -581,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4">
         <v>43770</v>
@@ -598,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4">
         <v>43770</v>
@@ -615,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4">
         <v>43770</v>
@@ -632,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4">
         <v>43773</v>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>任务描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,14 +56,6 @@
   </si>
   <si>
     <t>数据库日志，及分类查询（按用户、按功能）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -82,6 +74,25 @@
   </si>
   <si>
     <t>以角色管理列表页面为例，列表页面增加工具栏，并根据角色、权限，展示相应按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191115
+难以实现，页面如何根据不同角色，加载不同的html标签及js代码，而不是简单隐藏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入
+以用户导入为例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出
+以用户导出为例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成百度地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -178,6 +189,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -487,7 +501,7 @@
   <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -530,13 +544,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4">
         <v>43770</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4">
         <v>43771</v>
@@ -545,15 +559,15 @@
         <v>43776</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4">
         <v>43770</v>
@@ -563,14 +577,16 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>43770</v>
@@ -578,7 +594,9 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="4">
+        <v>43784</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
@@ -586,8 +604,8 @@
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="4">
         <v>43770</v>
@@ -654,7 +672,9 @@
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D624DCF1-CB56-4236-8BD3-EC44F570137D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,7 +213,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -287,6 +288,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -322,6 +340,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,26 +532,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="1"/>
-    <col min="2" max="2" width="3.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1328125" style="1"/>
+    <col min="2" max="2" width="3.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="2.125" style="1"/>
+    <col min="8" max="8" width="29.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="2.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
@@ -539,7 +574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -562,7 +597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -581,7 +616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -592,15 +627,17 @@
         <v>43770</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4">
         <v>43784</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="4">
+        <v>43786</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -617,7 +654,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -634,7 +671,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -651,7 +688,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -668,7 +705,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -681,7 +718,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -692,7 +729,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -703,7 +740,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -714,7 +751,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -725,7 +762,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -736,7 +773,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -747,7 +784,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -758,7 +795,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -769,7 +806,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -780,7 +817,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>18</v>
       </c>
@@ -791,7 +828,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -802,7 +839,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -813,7 +850,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -824,7 +861,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -835,7 +872,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>23</v>
       </c>
@@ -846,7 +883,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -858,7 +895,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D624DCF1-CB56-4236-8BD3-EC44F570137D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18465" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,10 +47,6 @@
     <t>未开始</t>
   </si>
   <si>
-    <t>报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图形化统计分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,11 +91,15 @@
     <t>集成百度地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +212,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -288,23 +287,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -340,23 +322,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,26 +497,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.1328125" style="1"/>
-    <col min="2" max="2" width="3.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.125" style="1"/>
+    <col min="2" max="2" width="3.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="2.1328125" style="1"/>
+    <col min="8" max="8" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="2.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
@@ -574,18 +539,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4">
         <v>43770</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4">
         <v>43771</v>
@@ -594,15 +559,15 @@
         <v>43776</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4">
         <v>43770</v>
@@ -613,21 +578,21 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>43770</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4">
         <v>43784</v>
@@ -637,29 +602,33 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4">
         <v>43770</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="4">
+        <v>43787</v>
+      </c>
+      <c r="G6" s="4">
+        <v>43787</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4">
         <v>43770</v>
@@ -671,12 +640,12 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4">
         <v>43770</v>
@@ -688,12 +657,12 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4">
         <v>43773</v>
@@ -705,12 +674,12 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -718,7 +687,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -729,7 +698,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -740,7 +709,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -751,7 +720,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -762,7 +731,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -773,7 +742,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -784,7 +753,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -795,7 +764,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -806,7 +775,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -817,7 +786,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>18</v>
       </c>
@@ -828,7 +797,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -839,7 +808,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -850,7 +819,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -861,7 +830,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -872,7 +841,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>23</v>
       </c>
@@ -883,7 +852,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -895,7 +864,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C15FFA-A183-4A11-BB0F-02EB116A0065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="18465" windowHeight="12195"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,10 +48,6 @@
     <t>未开始</t>
   </si>
   <si>
-    <t>图形化统计分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库日志，及分类查询（按用户、按功能）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,15 +89,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报表</t>
+    <t>报表
+按年度统计各月过磅总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形化统计分析
+按年度统计各月过磅总量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,8 +134,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +154,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -170,10 +187,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -188,14 +208,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - 着色 3" xfId="1" builtinId="38"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -212,7 +239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -287,6 +314,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -322,6 +366,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,26 +558,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="1"/>
-    <col min="2" max="2" width="3.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1328125" style="1"/>
+    <col min="2" max="2" width="3.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="2.125" style="1"/>
+    <col min="8" max="8" width="29.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="2.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
@@ -539,35 +598,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
-      <c r="B3" s="3">
+    <row r="3" spans="2:8" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>43770</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8">
+        <v>43771</v>
+      </c>
+      <c r="G3" s="8">
+        <v>43776</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
-        <v>43770</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43771</v>
-      </c>
-      <c r="G3" s="4">
-        <v>43776</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4">
         <v>43770</v>
@@ -577,92 +636,100 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="8">
+        <v>43770</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8">
+        <v>43784</v>
+      </c>
+      <c r="G5" s="8">
+        <v>43786</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="8">
         <v>43770</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4">
-        <v>43784</v>
-      </c>
-      <c r="G5" s="4">
-        <v>43786</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="8">
+        <v>43787</v>
+      </c>
+      <c r="G6" s="8">
+        <v>43787</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8">
         <v>43770</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4">
-        <v>43787</v>
-      </c>
-      <c r="G6" s="4">
-        <v>43787</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="8">
+        <v>43788</v>
+      </c>
+      <c r="G7" s="8">
+        <v>43788</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="8">
         <v>43770</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4">
-        <v>43770</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="8">
+        <v>43789</v>
+      </c>
+      <c r="G8" s="8">
+        <v>43789</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4">
         <v>43773</v>
@@ -674,12 +741,12 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -687,7 +754,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -698,7 +765,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -709,7 +776,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -720,7 +787,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -731,7 +798,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -742,7 +809,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -753,7 +820,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -764,7 +831,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -775,7 +842,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -786,7 +853,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>18</v>
       </c>
@@ -797,7 +864,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -808,7 +875,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -819,7 +886,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -830,7 +897,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -841,7 +908,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>23</v>
       </c>
@@ -852,7 +919,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -864,7 +931,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C15FFA-A183-4A11-BB0F-02EB116A0065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18465" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>任务描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,11 +97,39 @@
 按年度统计各月过磅总量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>系统模块维护页面bug修改，样式统一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以用户管理页面为例，增加列表页面检索功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增品名维护功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增车辆、车队维护功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增计划维护功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以称重记录页面为例，增加列表页面检索功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增作业船名、分运船名、操作过程、称重方式、维护功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,14 +146,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -139,6 +158,15 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -189,35 +217,35 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -239,7 +267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -314,23 +342,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -366,23 +377,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,47 +552,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.1328125" style="1"/>
-    <col min="2" max="2" width="3.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.125" style="1"/>
+    <col min="2" max="2" width="3.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="2.1328125" style="1"/>
+    <col min="8" max="8" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="2.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -621,7 +615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -636,11 +630,11 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -661,7 +655,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -682,7 +676,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -703,7 +697,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -724,7 +718,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -741,99 +735,145 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="4">
+        <v>43791</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43791</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43791</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43791</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43791</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43791</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43791</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43791</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -842,9 +882,9 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -853,9 +893,9 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -864,9 +904,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -875,9 +915,9 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -886,9 +926,9 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -897,9 +937,9 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -908,10 +948,8 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
-        <v>23</v>
-      </c>
+    <row r="25" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -919,19 +957,10 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E24">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>任务描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>新增作业船名、分运船名、操作过程、称重方式、维护功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增功能时，要求输入展示顺序，不友好,需要更改一种功能排序设置方式。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,336 +565,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.125" style="1"/>
     <col min="2" max="2" width="3.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="2.125" style="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="2.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E3" s="8">
         <v>43770</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
         <v>43771</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>43776</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>43770</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>43770</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>43784</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>43786</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="8">
         <v>43770</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" s="8">
-        <v>43787</v>
       </c>
       <c r="G6" s="8">
         <v>43787</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="8">
+        <v>43787</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8">
+      <c r="E7" s="8">
         <v>43770</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="F7" s="8">
-        <v>43788</v>
       </c>
       <c r="G7" s="8">
         <v>43788</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="8">
+        <v>43788</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8">
+      <c r="E8" s="8">
         <v>43770</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="F8" s="8">
-        <v>43789</v>
       </c>
       <c r="G8" s="8">
         <v>43789</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="8">
+        <v>43789</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>43773</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>43791</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>43791</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>43791</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>43791</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>43791</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>43791</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>15</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>43791</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>43791</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>17</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4">
+        <v>43794</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>18</v>
       </c>
@@ -892,8 +934,9 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>19</v>
       </c>
@@ -903,8 +946,9 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>20</v>
       </c>
@@ -914,8 +958,9 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>21</v>
       </c>
@@ -925,8 +970,9 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>22</v>
       </c>
@@ -936,8 +982,9 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>23</v>
       </c>
@@ -947,8 +994,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="2:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -956,11 +1004,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F24">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD80F41-8FB7-4ADD-8E07-15A992280442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="18465" windowHeight="12195"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +280,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -354,6 +355,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -389,6 +407,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,11 +599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -779,40 +814,48 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="3">
+      <c r="B11" s="7">
         <v>9</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="8">
         <v>43791</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="8">
+        <v>43797</v>
+      </c>
+      <c r="H11" s="8">
+        <v>43797</v>
+      </c>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="3">
+      <c r="B12" s="7">
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="8">
         <v>43791</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="8">
+        <v>43797</v>
+      </c>
+      <c r="H12" s="8">
+        <v>43797</v>
+      </c>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
@@ -1009,7 +1052,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD80F41-8FB7-4ADD-8E07-15A992280442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,7 +279,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -355,23 +354,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -407,23 +389,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -599,11 +564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1052,7 +1017,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F24" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F24">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>任务描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,35 @@
   </si>
   <si>
     <t>新增功能时，要求输入展示顺序，不友好,需要更改一种功能排序设置方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成【车辆管理】、【车队管理】、【货品管理】、【计划管理】、【称重记录管理】模块的基本功能：增、删、改、查、导入、导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、【统计报表模块】改为【大屏展示】展示内容为：按品种展示近12个月的过磅量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、项目测试、发布、遗留问题修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、去掉【车辆过磅】模块、【权限管理】模块、【模块列表】模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目测试1个小时，形成系统上线问题列表
+上线问题列表中的1/5的问题修改完毕后，进入项目验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、项目验收、项目总结、项目二期功能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -226,6 +255,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -233,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -259,6 +312,12 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -565,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I25"/>
+  <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -580,7 +639,7 @@
     <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="2.125" style="1"/>
   </cols>
   <sheetData>
@@ -932,14 +991,22 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>18</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43824</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -948,10 +1015,16 @@
       <c r="B20" s="3">
         <v>19</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="4">
+        <v>43824</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -960,42 +1033,60 @@
       <c r="B21" s="3">
         <v>20</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="4">
+        <v>43824</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>21</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="4">
+        <v>43824</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="4">
+        <v>43824</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="3">
-        <v>23</v>
-      </c>
+      <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1004,20 +1095,13 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C19:C23"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F23">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2E85EF-F00B-4B96-A188-997D353A107C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23980" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,19 +143,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、完成【车辆管理】、【车队管理】、【货品管理】、【计划管理】、【称重记录管理】模块的基本功能：增、删、改、查、导入、导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3、【统计报表模块】改为【大屏展示】展示内容为：按品种展示近12个月的过磅量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4、项目测试、发布、遗留问题修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、去掉【车辆过磅】模块、【权限管理】模块、【模块列表】模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -164,14 +157,22 @@
   </si>
   <si>
     <t>5、项目验收、项目总结、项目二期功能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、去掉【车辆过磅】模块、【权限管理】模块、【模块列表】模块、【计划管理】模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成【车辆管理】、【车队管理】、【货品管理】、【称重记录管理】、【用户管理】模块的基本功能：增、删、改、查、导入、导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +205,15 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -286,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -319,6 +329,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - 着色 3" xfId="1" builtinId="38"/>
@@ -338,7 +351,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -413,6 +426,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -448,6 +478,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -623,27 +670,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.08984375" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="1"/>
-    <col min="2" max="2" width="3.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.08984375" style="1"/>
+    <col min="2" max="2" width="3.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.125" style="1"/>
+    <col min="10" max="16384" width="2.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
@@ -669,7 +716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" s="2" customFormat="1" ht="52" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -693,7 +740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9" s="2" customFormat="1" ht="52" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -713,7 +760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -735,7 +782,7 @@
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -757,7 +804,7 @@
       </c>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -779,7 +826,7 @@
       </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -801,7 +848,7 @@
       </c>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -819,7 +866,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -837,7 +884,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>9</v>
       </c>
@@ -859,7 +906,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>10</v>
       </c>
@@ -881,7 +928,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>12</v>
       </c>
@@ -899,7 +946,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>13</v>
       </c>
@@ -917,7 +964,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>14</v>
       </c>
@@ -935,7 +982,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>15</v>
       </c>
@@ -953,7 +1000,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>16</v>
       </c>
@@ -971,7 +1018,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>17</v>
       </c>
@@ -991,7 +1038,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="2:9" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>18</v>
       </c>
@@ -999,7 +1046,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4">
         <v>43824</v>
@@ -1011,13 +1058,13 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>19</v>
       </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="3" t="s">
-        <v>33</v>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E20" s="4">
         <v>43824</v>
@@ -1029,13 +1076,13 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>20</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="3" t="s">
-        <v>31</v>
+      <c r="D21" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="E21" s="4">
         <v>43824</v>
@@ -1047,13 +1094,13 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="2:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>21</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="4">
         <v>43824</v>
@@ -1064,16 +1111,16 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>22</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" s="4">
         <v>43824</v>
@@ -1085,7 +1132,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1101,7 +1148,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
